--- a/Data/g12.1.xlsx
+++ b/Data/g12.1.xlsx
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>8188.000000000001</v>
+        <v>8188</v>
       </c>
     </row>
     <row r="374">
@@ -6063,7 +6063,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6078,7 +6078,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6093,7 +6093,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6123,7 +6123,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6138,7 +6138,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6153,7 +6153,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6183,7 +6183,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6198,7 +6198,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6213,7 +6213,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -6228,7 +6228,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6243,7 +6243,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6258,7 +6258,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -6273,7 +6273,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6303,7 +6303,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6333,7 +6333,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6423,7 +6423,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6453,7 +6453,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6477,13 +6477,13 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>-656000</v>
+        <v>-656</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6498,7 +6498,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -6513,7 +6513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6528,7 +6528,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6537,13 +6537,13 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>772000</v>
+        <v>772</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6558,7 +6558,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -6573,7 +6573,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -6588,7 +6588,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -6603,7 +6603,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6633,7 +6633,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6648,7 +6648,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -6663,7 +6663,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -6678,7 +6678,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6693,7 +6693,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -6723,7 +6723,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -6738,7 +6738,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -6753,7 +6753,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -6768,7 +6768,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -6783,7 +6783,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6798,7 +6798,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6813,7 +6813,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6843,7 +6843,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6858,7 +6858,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6873,7 +6873,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -6903,7 +6903,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6918,7 +6918,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -6933,7 +6933,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -6963,7 +6963,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -6978,7 +6978,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -6993,7 +6993,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7008,7 +7008,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7023,7 +7023,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7053,7 +7053,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7083,7 +7083,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -7098,7 +7098,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7113,7 +7113,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7173,7 +7173,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7203,7 +7203,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>594000</v>
+        <v>594</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -7242,13 +7242,13 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>194000</v>
+        <v>194</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -7263,7 +7263,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -7278,7 +7278,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7293,7 +7293,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7323,7 +7323,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -7338,7 +7338,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -7353,7 +7353,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -7368,7 +7368,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>-364000</v>
+        <v>-364</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7398,7 +7398,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7413,7 +7413,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -7428,7 +7428,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -7443,7 +7443,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -7458,7 +7458,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -7473,7 +7473,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -7488,7 +7488,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7503,7 +7503,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7533,7 +7533,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7548,7 +7548,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -7557,13 +7557,13 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>557000</v>
+        <v>557</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7578,7 +7578,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -7593,7 +7593,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7623,7 +7623,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -7638,7 +7638,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -7653,7 +7653,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7683,7 +7683,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7698,7 +7698,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -7713,7 +7713,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -7728,7 +7728,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7743,7 +7743,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7758,7 +7758,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -7773,7 +7773,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -7788,7 +7788,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -7803,7 +7803,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -7818,7 +7818,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7833,7 +7833,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -7848,7 +7848,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -7863,7 +7863,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7878,7 +7878,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7893,7 +7893,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7908,7 +7908,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7923,7 +7923,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -7938,7 +7938,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -7953,7 +7953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -7968,7 +7968,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -7983,7 +7983,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -7998,7 +7998,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -8013,7 +8013,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -8028,7 +8028,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -8043,7 +8043,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -8058,7 +8058,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -8073,7 +8073,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -8088,7 +8088,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -8103,7 +8103,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -8118,7 +8118,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -8133,7 +8133,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -8148,7 +8148,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -8163,7 +8163,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8178,7 +8178,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -8193,7 +8193,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -8208,7 +8208,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>921000</v>
+        <v>921</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -8238,7 +8238,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -8253,7 +8253,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -8268,7 +8268,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8298,7 +8298,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -8313,7 +8313,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -8328,7 +8328,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -8343,7 +8343,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -8358,7 +8358,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -8373,7 +8373,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -8388,7 +8388,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -8403,7 +8403,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -8418,7 +8418,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -8427,13 +8427,13 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>536000</v>
+        <v>536</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -8448,7 +8448,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -8463,7 +8463,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -8472,13 +8472,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>-105000</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>950000</v>
+        <v>950</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -8508,7 +8508,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -8523,7 +8523,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -8538,7 +8538,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -8553,7 +8553,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -8568,7 +8568,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -8583,7 +8583,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -8598,7 +8598,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -8613,7 +8613,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -8628,7 +8628,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -8643,7 +8643,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -8658,7 +8658,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -8673,7 +8673,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -8688,7 +8688,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -8703,7 +8703,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -8718,7 +8718,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -8733,7 +8733,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -8748,7 +8748,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -8763,7 +8763,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -8778,7 +8778,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -8793,7 +8793,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -8808,7 +8808,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -8823,7 +8823,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -8853,7 +8853,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Saldo Comercial</t>
+          <t>Saldo da balança comercial</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>-8066.000000000001</v>
+        <v>-8066</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g12.1.xlsx
+++ b/Data/g12.1.xlsx
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>278502318</v>
+        <v>314927688</v>
       </c>
     </row>
     <row r="17">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>218377734</v>
+        <v>232035958</v>
       </c>
     </row>
     <row r="32">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>60124584</v>
+        <v>82891730</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g12.1.xlsx
+++ b/Data/g12.1.xlsx
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>314927688</v>
+        <v>421534452</v>
       </c>
     </row>
     <row r="17">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>232035958</v>
+        <v>382777669</v>
       </c>
     </row>
     <row r="32">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>82891730</v>
+        <v>38756783</v>
       </c>
     </row>
   </sheetData>
